--- a/images for paper.xlsx
+++ b/images for paper.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melli\Documents\Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A528FE93-8C0C-4EFD-BBE8-D90EE130F5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096351E1-84A7-418A-9964-395FE0FD75BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{9301798A-F495-43D3-A97B-C6EE34606068}"/>
+    <workbookView xWindow="6429" yWindow="4123" windowWidth="19285" windowHeight="12026" xr2:uid="{9301798A-F495-43D3-A97B-C6EE34606068}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet3!$A$1:$D$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="82">
   <si>
     <t>Feature</t>
   </si>
@@ -215,13 +216,85 @@
   </si>
   <si>
     <t>aa</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Rules PART</t>
+  </si>
+  <si>
+    <t>Support Vector Classifier</t>
+  </si>
+  <si>
+    <t>K Nearest Neighbors</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Neural Network (2-hidden layers)</t>
+  </si>
+  <si>
+    <t>Implemented in</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Library Used</t>
+  </si>
+  <si>
+    <t>Weka</t>
+  </si>
+  <si>
+    <t>Scikit-learn</t>
+  </si>
+  <si>
+    <t>Tensorflow</t>
+  </si>
+  <si>
+    <t>Selection Method</t>
+  </si>
+  <si>
+    <t>All Variables</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Python/Weka</t>
+  </si>
+  <si>
+    <t>Univariate Filter</t>
+  </si>
+  <si>
+    <t>Multivariate Filter</t>
+  </si>
+  <si>
+    <t>Chi-Square Test (Categorical) ANOVA F-Regression (Continuous)</t>
+  </si>
+  <si>
+    <t>Environment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,16 +307,46 @@
       <color theme="1"/>
       <name val="Lucida"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Lucida"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Lucida"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -251,16 +354,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -3394,20 +3559,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814F4EFD-03BC-4941-A733-30C86B870502}">
-  <dimension ref="B1:D20"/>
+  <dimension ref="B1:P44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="41" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
     <col min="2" max="2" width="33.4609375" customWidth="1"/>
     <col min="3" max="3" width="88.84375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.15234375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.53515625" customWidth="1"/>
+    <col min="14" max="14" width="15.921875" customWidth="1"/>
+    <col min="15" max="15" width="16.69140625" customWidth="1"/>
+    <col min="17" max="17" width="30.3828125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3418,7 +3588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3429,7 +3599,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3439,8 +3609,17 @@
       <c r="D3" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="M3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3450,8 +3629,17 @@
       <c r="D4" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="M4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3461,8 +3649,17 @@
       <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="M5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3472,8 +3669,17 @@
       <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="M6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3483,8 +3689,17 @@
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="M7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
@@ -3494,8 +3709,17 @@
       <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="M8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
       <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
@@ -3505,8 +3729,11 @@
       <c r="D9" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="2:15">
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
@@ -3516,8 +3743,17 @@
       <c r="D10" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="M10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3527,8 +3763,17 @@
       <c r="D11" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="M11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="71.150000000000006">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -3538,8 +3783,17 @@
       <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="M12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
@@ -3549,8 +3803,17 @@
       <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="M13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
@@ -3560,8 +3823,17 @@
       <c r="D14" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="M14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3571,8 +3843,17 @@
       <c r="D15" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="M15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
@@ -3583,7 +3864,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3594,7 +3875,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
@@ -3605,7 +3886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -3616,7 +3897,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4">
       <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
@@ -3625,6 +3906,50 @@
       </c>
       <c r="D20" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16">
+      <c r="P36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16">
+      <c r="L41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16">
+      <c r="L42" s="6">
+        <v>1</v>
+      </c>
+      <c r="M42" s="7">
+        <v>151</v>
+      </c>
+      <c r="N42" s="8">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16">
+      <c r="L43" s="6">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>142</v>
+      </c>
+      <c r="N43" s="9">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16">
+      <c r="C44" s="2"/>
+      <c r="D44" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3645,9 +3970,9 @@
       <selection activeCell="S1" sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3709,7 +4034,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>-0.88077101210108799</v>
       </c>
@@ -3777,6 +4102,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E789AC3-C0EA-4D75-86CD-DD9956816F16}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D36E4F5-F51C-45E4-AAEE-7DCE49EFE24B}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D20"/>
@@ -3785,12 +4124,12 @@
       <selection activeCell="C4" sqref="C4:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="28.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -3804,7 +4143,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" hidden="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3819,7 +4158,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" hidden="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3834,7 +4173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3846,7 +4185,7 @@
         <v>2,</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3858,7 +4197,7 @@
         <v>3,</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3870,7 +4209,7 @@
         <v>4,</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3882,7 +4221,7 @@
         <v>5,</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" hidden="1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3897,7 +4236,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" hidden="1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3912,7 +4251,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" hidden="1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3927,7 +4266,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" hidden="1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3942,7 +4281,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" hidden="1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3957,7 +4296,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3969,7 +4308,7 @@
         <v>11,</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" hidden="1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3984,7 +4323,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3996,7 +4335,7 @@
         <v>13,</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4008,7 +4347,7 @@
         <v>14,</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4020,7 +4359,7 @@
         <v>15,</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4032,7 +4371,7 @@
         <v>16,</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4044,7 +4383,7 @@
         <v>17,</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
